--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.37</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.48</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.19</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003561</t>
+          <t>570005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合A</t>
+          <t>诺德成长优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>76.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4826</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003562</t>
+          <t>006424</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德成长精选灵活配置混合C</t>
+          <t>嘉合锦程价值精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>67.55</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007141</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合A</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>80.13</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007142</t>
+          <t>006425</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉合稳健增长灵活配置混合C</t>
+          <t>嘉合锦程价值精选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80.13</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>72.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>007141</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>嘉合稳健增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006424</t>
+          <t>003561</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合A</t>
+          <t>诺德成长精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.28</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006425</t>
+          <t>007142</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉合锦程价值精选混合C</t>
+          <t>嘉合稳健增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>72.28</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007281</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉合消费升级混合</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -846,25 +976,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>570005</t>
+          <t>007281</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德成长优势混合</t>
+          <t>嘉合消费升级混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.89</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -902,26 +1052,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>003562</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>88.26</t>
-        </is>
-      </c>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1060,7 +1061,6 @@
           <t>诺德成长精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>67.55</t>
@@ -1075,6 +1075,212 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1287,4 +1288,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1420,4 +1421,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,7 +1430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1440,17 +1441,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1460,14 +1481,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1476,14 +1519,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5</v>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1492,14 +1557,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1508,13 +1595,1215 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3731</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2341</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2233</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,7 +2703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2713,17 +2714,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2733,14 +2754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.04</v>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2749,14 +2792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2765,14 +2830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5</v>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6243</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2781,14 +2868,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.08</v>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2797,13 +2906,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011171</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈智慧生活混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3785,7 +3786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3796,17 +3797,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3816,14 +3837,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.06</v>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3832,14 +3875,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.04</v>
+          <t>008227</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3306</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3848,14 +3913,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3864,14 +3951,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3880,14 +3989,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.08</v>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3896,13 +4027,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>6.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>7.04</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516620</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证影视主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2193,7 +2418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3465,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3597,7 +3822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3803,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4270,7 +4495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
+++ b/数据整理/stocks/A股/深证主板/000681-视觉中国.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.25</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>6.06</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>7.04</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -616,7 +633,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +1693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2418,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3690,7 +4047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3822,7 +4179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +4385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4493,174 +4850,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1314</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0390</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>